--- a/Team-Data/2013-14/12-16-2013-14.xlsx
+++ b/Team-Data/2013-14/12-16-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,61 +733,61 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
         <v>12</v>
       </c>
       <c r="G2" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="H2" t="n">
         <v>48.2</v>
       </c>
       <c r="I2" t="n">
-        <v>37.9</v>
+        <v>37.6</v>
       </c>
       <c r="J2" t="n">
-        <v>81.90000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0.462</v>
+        <v>0.461</v>
       </c>
       <c r="L2" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0.368</v>
+        <v>0.366</v>
       </c>
       <c r="O2" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P2" t="n">
-        <v>21.2</v>
+        <v>21.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.753</v>
+        <v>0.75</v>
       </c>
       <c r="R2" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="S2" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T2" t="n">
-        <v>40.8</v>
+        <v>40.6</v>
       </c>
       <c r="U2" t="n">
-        <v>24.8</v>
+        <v>24.4</v>
       </c>
       <c r="V2" t="n">
-        <v>15</v>
+        <v>15.3</v>
       </c>
       <c r="W2" t="n">
         <v>8.4</v>
@@ -735,64 +802,64 @@
         <v>18.8</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
         <v>12</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
         <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
         <v>8</v>
       </c>
       <c r="AL2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM2" t="n">
         <v>10</v>
       </c>
       <c r="AN2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AQ2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS2" t="n">
         <v>14</v>
       </c>
       <c r="AT2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU2" t="n">
         <v>2</v>
@@ -801,10 +868,10 @@
         <v>15</v>
       </c>
       <c r="AW2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY2" t="n">
         <v>9</v>
@@ -816,10 +883,10 @@
         <v>24</v>
       </c>
       <c r="BB2" t="n">
+        <v>16</v>
+      </c>
+      <c r="BC2" t="n">
         <v>15</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>14</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-16-2013-14</t>
+          <t>2013-12-16</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="n">
         <v>14</v>
       </c>
       <c r="G3" t="n">
-        <v>0.462</v>
+        <v>0.44</v>
       </c>
       <c r="H3" t="n">
         <v>48</v>
@@ -866,76 +933,76 @@
         <v>36.3</v>
       </c>
       <c r="J3" t="n">
-        <v>80.3</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L3" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M3" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="O3" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="P3" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="R3" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>31</v>
+      </c>
+      <c r="T3" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="X3" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="AA3" t="n">
         <v>18.6</v>
       </c>
-      <c r="N3" t="n">
-        <v>0.358</v>
-      </c>
-      <c r="O3" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="P3" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.764</v>
-      </c>
-      <c r="R3" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="S3" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="T3" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="U3" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="V3" t="n">
-        <v>16</v>
-      </c>
-      <c r="W3" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="X3" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>18.7</v>
-      </c>
       <c r="AB3" t="n">
-        <v>95</v>
+        <v>94.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD3" t="n">
         <v>2</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH3" t="n">
         <v>24</v>
@@ -950,31 +1017,31 @@
         <v>12</v>
       </c>
       <c r="AL3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO3" t="n">
         <v>25</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ3" t="n">
         <v>13</v>
       </c>
       <c r="AR3" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AS3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT3" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AU3" t="n">
         <v>30</v>
@@ -983,19 +1050,19 @@
         <v>24</v>
       </c>
       <c r="AW3" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AX3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AY3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ3" t="n">
         <v>20</v>
       </c>
       <c r="BA3" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BB3" t="n">
         <v>23</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-16-2013-14</t>
+          <t>2013-12-16</t>
         </is>
       </c>
     </row>
@@ -1030,88 +1097,88 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
         <v>15</v>
       </c>
       <c r="G4" t="n">
-        <v>0.375</v>
+        <v>0.348</v>
       </c>
       <c r="H4" t="n">
         <v>48.4</v>
       </c>
       <c r="I4" t="n">
-        <v>35</v>
+        <v>34.4</v>
       </c>
       <c r="J4" t="n">
-        <v>78.59999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="K4" t="n">
-        <v>0.445</v>
+        <v>0.438</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="M4" t="n">
-        <v>19</v>
+        <v>18.3</v>
       </c>
       <c r="N4" t="n">
-        <v>0.37</v>
+        <v>0.351</v>
       </c>
       <c r="O4" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="P4" t="n">
         <v>26.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.754</v>
+        <v>0.762</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>10.3</v>
       </c>
       <c r="S4" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="T4" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U4" t="n">
-        <v>19.9</v>
+        <v>19.3</v>
       </c>
       <c r="V4" t="n">
-        <v>14.7</v>
+        <v>14.4</v>
       </c>
       <c r="W4" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="X4" t="n">
         <v>4</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.8</v>
+        <v>95.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>-4.5</v>
+        <v>-6.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AF4" t="n">
         <v>24</v>
@@ -1120,25 +1187,25 @@
         <v>24</v>
       </c>
       <c r="AH4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ4" t="n">
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AM4" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AN4" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AO4" t="n">
         <v>5</v>
@@ -1147,31 +1214,31 @@
         <v>5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AR4" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AS4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AT4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU4" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AV4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AW4" t="n">
         <v>27</v>
       </c>
       <c r="AX4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ4" t="n">
         <v>28</v>
@@ -1183,7 +1250,7 @@
         <v>22</v>
       </c>
       <c r="BC4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-16-2013-14</t>
+          <t>2013-12-16</t>
         </is>
       </c>
     </row>
@@ -1290,16 +1357,16 @@
         <v>-2.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
       </c>
       <c r="AF5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG5" t="n">
         <v>19</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>20</v>
       </c>
       <c r="AH5" t="n">
         <v>24</v>
@@ -1353,7 +1420,7 @@
         <v>9</v>
       </c>
       <c r="AY5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ5" t="n">
         <v>5</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-16-2013-14</t>
+          <t>2013-12-16</t>
         </is>
       </c>
     </row>
@@ -1394,70 +1461,70 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.391</v>
+        <v>0.409</v>
       </c>
       <c r="H6" t="n">
         <v>48.9</v>
       </c>
       <c r="I6" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="J6" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="K6" t="n">
-        <v>0.417</v>
+        <v>0.42</v>
       </c>
       <c r="L6" t="n">
         <v>5.3</v>
       </c>
       <c r="M6" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.322</v>
+        <v>0.324</v>
       </c>
       <c r="O6" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P6" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.783</v>
+        <v>0.781</v>
       </c>
       <c r="R6" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="S6" t="n">
-        <v>33.3</v>
+        <v>33</v>
       </c>
       <c r="T6" t="n">
         <v>45.9</v>
       </c>
       <c r="U6" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V6" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="W6" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X6" t="n">
         <v>4.9</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="Z6" t="n">
         <v>20</v>
@@ -1466,31 +1533,31 @@
         <v>21.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>91.2</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="AC6" t="n">
         <v>-1.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF6" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AK6" t="n">
         <v>28</v>
@@ -1511,7 +1578,7 @@
         <v>18</v>
       </c>
       <c r="AQ6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR6" t="n">
         <v>6</v>
@@ -1526,7 +1593,7 @@
         <v>15</v>
       </c>
       <c r="AV6" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AW6" t="n">
         <v>29</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-16-2013-14</t>
+          <t>2013-12-16</t>
         </is>
       </c>
     </row>
@@ -1654,16 +1721,16 @@
         <v>-5.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH7" t="n">
         <v>6</v>
@@ -1672,13 +1739,13 @@
         <v>25</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
         <v>26</v>
       </c>
       <c r="AL7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM7" t="n">
         <v>20</v>
@@ -1687,13 +1754,13 @@
         <v>18</v>
       </c>
       <c r="AO7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP7" t="n">
         <v>21</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AQ7" t="n">
         <v>20</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>19</v>
       </c>
       <c r="AR7" t="n">
         <v>9</v>
@@ -1708,16 +1775,16 @@
         <v>28</v>
       </c>
       <c r="AV7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW7" t="n">
         <v>17</v>
       </c>
       <c r="AX7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ7" t="n">
         <v>6</v>
@@ -1726,10 +1793,10 @@
         <v>23</v>
       </c>
       <c r="BB7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-16-2013-14</t>
+          <t>2013-12-16</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>1.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>8</v>
@@ -1866,13 +1933,13 @@
         <v>9</v>
       </c>
       <c r="AN8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO8" t="n">
         <v>18</v>
       </c>
       <c r="AP8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
@@ -1881,7 +1948,7 @@
         <v>25</v>
       </c>
       <c r="AS8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AT8" t="n">
         <v>25</v>
@@ -1890,25 +1957,25 @@
         <v>9</v>
       </c>
       <c r="AV8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW8" t="n">
         <v>4</v>
       </c>
       <c r="AX8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY8" t="n">
         <v>5</v>
       </c>
       <c r="AZ8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA8" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BB8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC8" t="n">
         <v>12</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-16-2013-14</t>
+          <t>2013-12-16</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>2.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
         <v>8</v>
@@ -2039,16 +2106,16 @@
         <v>7</v>
       </c>
       <c r="AK9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="n">
         <v>14</v>
       </c>
       <c r="AM9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO9" t="n">
         <v>12</v>
@@ -2057,13 +2124,13 @@
         <v>7</v>
       </c>
       <c r="AQ9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR9" t="n">
         <v>5</v>
       </c>
       <c r="AS9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT9" t="n">
         <v>3</v>
@@ -2072,7 +2139,7 @@
         <v>14</v>
       </c>
       <c r="AV9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AW9" t="n">
         <v>21</v>
@@ -2081,7 +2148,7 @@
         <v>5</v>
       </c>
       <c r="AY9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ9" t="n">
         <v>22</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-16-2013-14</t>
+          <t>2013-12-16</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" t="n">
         <v>14</v>
       </c>
       <c r="G10" t="n">
-        <v>0.462</v>
+        <v>0.44</v>
       </c>
       <c r="H10" t="n">
         <v>48.6</v>
@@ -2140,10 +2207,10 @@
         <v>38.4</v>
       </c>
       <c r="J10" t="n">
-        <v>85.09999999999999</v>
+        <v>85</v>
       </c>
       <c r="K10" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L10" t="n">
         <v>6.1</v>
@@ -2152,37 +2219,37 @@
         <v>19.6</v>
       </c>
       <c r="N10" t="n">
-        <v>0.312</v>
+        <v>0.31</v>
       </c>
       <c r="O10" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P10" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.671</v>
+        <v>0.672</v>
       </c>
       <c r="R10" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="S10" t="n">
-        <v>30.6</v>
+        <v>30.4</v>
       </c>
       <c r="T10" t="n">
-        <v>44.8</v>
+        <v>44.4</v>
       </c>
       <c r="U10" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="V10" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="W10" t="n">
-        <v>8.800000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="X10" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y10" t="n">
         <v>4.7</v>
@@ -2194,34 +2261,34 @@
         <v>20.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.9</v>
+        <v>-1.2</v>
       </c>
       <c r="AD10" t="n">
         <v>2</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ10" t="n">
         <v>6</v>
       </c>
       <c r="AK10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL10" t="n">
         <v>26</v>
@@ -2251,28 +2318,28 @@
         <v>9</v>
       </c>
       <c r="AU10" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AV10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AW10" t="n">
         <v>5</v>
       </c>
       <c r="AX10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY10" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA10" t="n">
         <v>16</v>
       </c>
       <c r="BB10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC10" t="n">
         <v>17</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-16-2013-14</t>
+          <t>2013-12-16</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>2.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
         <v>11</v>
@@ -2397,13 +2464,13 @@
         <v>15</v>
       </c>
       <c r="AI11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ11" t="n">
         <v>16</v>
       </c>
       <c r="AK11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL11" t="n">
         <v>3</v>
@@ -2421,7 +2488,7 @@
         <v>15</v>
       </c>
       <c r="AQ11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR11" t="n">
         <v>20</v>
@@ -2430,7 +2497,7 @@
         <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU11" t="n">
         <v>12</v>
@@ -2442,10 +2509,10 @@
         <v>18</v>
       </c>
       <c r="AX11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ11" t="n">
         <v>29</v>
@@ -2454,7 +2521,7 @@
         <v>17</v>
       </c>
       <c r="BB11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC11" t="n">
         <v>9</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-16-2013-14</t>
+          <t>2013-12-16</t>
         </is>
       </c>
     </row>
@@ -2564,22 +2631,22 @@
         <v>4.8</v>
       </c>
       <c r="AD12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE12" t="n">
         <v>6</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>7</v>
       </c>
       <c r="AF12" t="n">
         <v>6</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ12" t="n">
         <v>28</v>
@@ -2594,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -2639,7 +2706,7 @@
         <v>2</v>
       </c>
       <c r="BC12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-16-2013-14</t>
+          <t>2013-12-16</t>
         </is>
       </c>
     </row>
@@ -2668,85 +2735,85 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" t="n">
         <v>20</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>0.833</v>
+        <v>0.87</v>
       </c>
       <c r="H13" t="n">
         <v>48.2</v>
       </c>
       <c r="I13" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J13" t="n">
         <v>79.5</v>
       </c>
       <c r="K13" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L13" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M13" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="N13" t="n">
         <v>0.363</v>
       </c>
       <c r="O13" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="P13" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.784</v>
+        <v>0.786</v>
       </c>
       <c r="R13" t="n">
         <v>9.9</v>
       </c>
       <c r="S13" t="n">
-        <v>34.1</v>
+        <v>34.3</v>
       </c>
       <c r="T13" t="n">
-        <v>44</v>
+        <v>44.2</v>
       </c>
       <c r="U13" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V13" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="W13" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X13" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z13" t="n">
         <v>19.6</v>
       </c>
       <c r="AA13" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE13" t="n">
         <v>2</v>
@@ -2755,10 +2822,10 @@
         <v>1</v>
       </c>
       <c r="AG13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI13" t="n">
         <v>22</v>
@@ -2770,13 +2837,13 @@
         <v>11</v>
       </c>
       <c r="AL13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM13" t="n">
         <v>19</v>
       </c>
       <c r="AN13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO13" t="n">
         <v>11</v>
@@ -2785,7 +2852,7 @@
         <v>12</v>
       </c>
       <c r="AQ13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR13" t="n">
         <v>26</v>
@@ -2797,25 +2864,25 @@
         <v>10</v>
       </c>
       <c r="AU13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV13" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AW13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY13" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ13" t="n">
         <v>8</v>
       </c>
       <c r="BA13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB13" t="n">
         <v>20</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-16-2013-14</t>
+          <t>2013-12-16</t>
         </is>
       </c>
     </row>
@@ -2850,82 +2917,82 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" t="n">
         <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>0.654</v>
+        <v>0.64</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J14" t="n">
-        <v>80.8</v>
+        <v>81</v>
       </c>
       <c r="K14" t="n">
-        <v>0.466</v>
+        <v>0.464</v>
       </c>
       <c r="L14" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M14" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.335</v>
+        <v>0.329</v>
       </c>
       <c r="O14" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="P14" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.71</v>
+        <v>0.709</v>
       </c>
       <c r="R14" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="S14" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T14" t="n">
         <v>42.6</v>
       </c>
       <c r="U14" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="V14" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="W14" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X14" t="n">
         <v>4.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>104.1</v>
+        <v>103.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="AD14" t="n">
         <v>2</v>
@@ -2943,13 +3010,13 @@
         <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ14" t="n">
         <v>24</v>
       </c>
       <c r="AK14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL14" t="n">
         <v>13</v>
@@ -2958,7 +3025,7 @@
         <v>7</v>
       </c>
       <c r="AN14" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -2967,7 +3034,7 @@
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR14" t="n">
         <v>23</v>
@@ -2979,22 +3046,22 @@
         <v>17</v>
       </c>
       <c r="AU14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AX14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY14" t="n">
         <v>2</v>
       </c>
       <c r="AZ14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA14" t="n">
         <v>2</v>
@@ -3003,7 +3070,7 @@
         <v>5</v>
       </c>
       <c r="BC14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-16-2013-14</t>
+          <t>2013-12-16</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" t="n">
         <v>11</v>
       </c>
       <c r="F15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" t="n">
-        <v>0.458</v>
+        <v>0.478</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
@@ -3050,76 +3117,76 @@
         <v>37.5</v>
       </c>
       <c r="J15" t="n">
-        <v>85.09999999999999</v>
+        <v>85.3</v>
       </c>
       <c r="K15" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L15" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="M15" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="N15" t="n">
-        <v>0.386</v>
+        <v>0.391</v>
       </c>
       <c r="O15" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="P15" t="n">
         <v>21.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.735</v>
+        <v>0.732</v>
       </c>
       <c r="R15" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S15" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T15" t="n">
         <v>42.8</v>
       </c>
       <c r="U15" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="V15" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W15" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X15" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y15" t="n">
         <v>4.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AA15" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB15" t="n">
         <v>100.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>-3.4</v>
+        <v>-3</v>
       </c>
       <c r="AD15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF15" t="n">
         <v>12</v>
       </c>
-      <c r="AE15" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>14</v>
-      </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH15" t="n">
         <v>24</v>
@@ -3131,55 +3198,55 @@
         <v>5</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM15" t="n">
         <v>2</v>
       </c>
       <c r="AN15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AO15" t="n">
         <v>26</v>
       </c>
       <c r="AP15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR15" t="n">
         <v>22</v>
       </c>
-      <c r="AR15" t="n">
-        <v>21</v>
-      </c>
       <c r="AS15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV15" t="n">
         <v>14</v>
       </c>
       <c r="AW15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA15" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BB15" t="n">
         <v>14</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-16-2013-14</t>
+          <t>2013-12-16</t>
         </is>
       </c>
     </row>
@@ -3292,13 +3359,13 @@
         <v>-3.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
         <v>18</v>
       </c>
       <c r="AF16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AG16" t="n">
         <v>18</v>
@@ -3322,25 +3389,25 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
         <v>20</v>
       </c>
       <c r="AP16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ16" t="n">
         <v>12</v>
       </c>
       <c r="AR16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS16" t="n">
         <v>24</v>
       </c>
       <c r="AT16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU16" t="n">
         <v>16</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-16-2013-14</t>
+          <t>2013-12-16</t>
         </is>
       </c>
     </row>
@@ -3396,58 +3463,58 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" t="n">
         <v>6</v>
       </c>
       <c r="G17" t="n">
-        <v>0.75</v>
+        <v>0.739</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>38.4</v>
+        <v>38.1</v>
       </c>
       <c r="J17" t="n">
-        <v>75.09999999999999</v>
+        <v>75.3</v>
       </c>
       <c r="K17" t="n">
-        <v>0.511</v>
+        <v>0.506</v>
       </c>
       <c r="L17" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M17" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="N17" t="n">
         <v>0.386</v>
       </c>
       <c r="O17" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P17" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.763</v>
+        <v>0.761</v>
       </c>
       <c r="R17" t="n">
         <v>6.5</v>
       </c>
       <c r="S17" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="T17" t="n">
-        <v>35.9</v>
+        <v>35.7</v>
       </c>
       <c r="U17" t="n">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="V17" t="n">
         <v>15.7</v>
@@ -3456,25 +3523,25 @@
         <v>9.5</v>
       </c>
       <c r="X17" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y17" t="n">
         <v>2.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AA17" t="n">
         <v>21.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>103.7</v>
+        <v>103.1</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="AD17" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3489,7 +3556,7 @@
         <v>24</v>
       </c>
       <c r="AI17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3498,22 +3565,22 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO17" t="n">
         <v>8</v>
       </c>
       <c r="AP17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3525,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV17" t="n">
         <v>18</v>
@@ -3540,16 +3607,16 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-16-2013-14</t>
+          <t>2013-12-16</t>
         </is>
       </c>
     </row>
@@ -3656,13 +3723,13 @@
         <v>-8.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
       </c>
       <c r="AF18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG18" t="n">
         <v>30</v>
@@ -3680,16 +3747,16 @@
         <v>29</v>
       </c>
       <c r="AL18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM18" t="n">
         <v>22</v>
       </c>
-      <c r="AM18" t="n">
-        <v>23</v>
-      </c>
       <c r="AN18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP18" t="n">
         <v>28</v>
@@ -3698,7 +3765,7 @@
         <v>10</v>
       </c>
       <c r="AR18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS18" t="n">
         <v>28</v>
@@ -3710,16 +3777,16 @@
         <v>19</v>
       </c>
       <c r="AV18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX18" t="n">
         <v>7</v>
       </c>
       <c r="AY18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ18" t="n">
         <v>11</v>
@@ -3731,7 +3798,7 @@
         <v>30</v>
       </c>
       <c r="BC18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-16-2013-14</t>
+          <t>2013-12-16</t>
         </is>
       </c>
     </row>
@@ -3760,100 +3827,100 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" t="n">
         <v>12</v>
       </c>
       <c r="F19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19" t="n">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J19" t="n">
-        <v>89.2</v>
+        <v>88.8</v>
       </c>
       <c r="K19" t="n">
-        <v>0.423</v>
+        <v>0.425</v>
       </c>
       <c r="L19" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="M19" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.339</v>
+        <v>0.342</v>
       </c>
       <c r="O19" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="P19" t="n">
         <v>27</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.799</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="R19" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="S19" t="n">
         <v>31.9</v>
       </c>
       <c r="T19" t="n">
-        <v>45.4</v>
+        <v>45.1</v>
       </c>
       <c r="U19" t="n">
         <v>23</v>
       </c>
       <c r="V19" t="n">
-        <v>14.1</v>
+        <v>14.4</v>
       </c>
       <c r="W19" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="X19" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Y19" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z19" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>105.2</v>
+        <v>105.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF19" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
         <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ19" t="n">
         <v>1</v>
@@ -3862,13 +3929,13 @@
         <v>27</v>
       </c>
       <c r="AL19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO19" t="n">
         <v>3</v>
@@ -3880,10 +3947,10 @@
         <v>4</v>
       </c>
       <c r="AR19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT19" t="n">
         <v>6</v>
@@ -3892,7 +3959,7 @@
         <v>8</v>
       </c>
       <c r="AV19" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AW19" t="n">
         <v>2</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-16-2013-14</t>
+          <t>2013-12-16</t>
         </is>
       </c>
     </row>
@@ -4020,16 +4087,16 @@
         <v>0.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF20" t="n">
         <v>11</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH20" t="n">
         <v>3</v>
@@ -4041,16 +4108,16 @@
         <v>3</v>
       </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM20" t="n">
         <v>27</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO20" t="n">
         <v>13</v>
@@ -4062,13 +4129,13 @@
         <v>11</v>
       </c>
       <c r="AR20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS20" t="n">
         <v>26</v>
       </c>
       <c r="AT20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU20" t="n">
         <v>11</v>
@@ -4092,7 +4159,7 @@
         <v>18</v>
       </c>
       <c r="BB20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC20" t="n">
         <v>13</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-16-2013-14</t>
+          <t>2013-12-16</t>
         </is>
       </c>
     </row>
@@ -4124,103 +4191,103 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G21" t="n">
-        <v>0.292</v>
+        <v>0.304</v>
       </c>
       <c r="H21" t="n">
         <v>48.2</v>
       </c>
       <c r="I21" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J21" t="n">
-        <v>83</v>
+        <v>83.2</v>
       </c>
       <c r="K21" t="n">
-        <v>0.432</v>
+        <v>0.433</v>
       </c>
       <c r="L21" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="M21" t="n">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.346</v>
+        <v>0.345</v>
       </c>
       <c r="O21" t="n">
-        <v>14</v>
+        <v>13.6</v>
       </c>
       <c r="P21" t="n">
-        <v>18</v>
+        <v>17.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.782</v>
+        <v>0.783</v>
       </c>
       <c r="R21" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S21" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="T21" t="n">
-        <v>38.5</v>
+        <v>38.7</v>
       </c>
       <c r="U21" t="n">
         <v>19.9</v>
       </c>
       <c r="V21" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="W21" t="n">
         <v>8.6</v>
       </c>
       <c r="X21" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y21" t="n">
         <v>4</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA21" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="AB21" t="n">
-        <v>94.5</v>
+        <v>94.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>-3.5</v>
+        <v>-3.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF21" t="n">
         <v>26</v>
       </c>
       <c r="AG21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI21" t="n">
         <v>23</v>
       </c>
       <c r="AJ21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK21" t="n">
         <v>25</v>
@@ -4241,10 +4308,10 @@
         <v>29</v>
       </c>
       <c r="AQ21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS21" t="n">
         <v>30</v>
@@ -4253,7 +4320,7 @@
         <v>29</v>
       </c>
       <c r="AU21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
@@ -4262,19 +4329,19 @@
         <v>7</v>
       </c>
       <c r="AX21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AY21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ21" t="n">
         <v>25</v>
       </c>
       <c r="BA21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC21" t="n">
         <v>23</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-16-2013-14</t>
+          <t>2013-12-16</t>
         </is>
       </c>
     </row>
@@ -4384,13 +4451,13 @@
         <v>7</v>
       </c>
       <c r="AD22" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
       </c>
       <c r="AF22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG22" t="n">
         <v>3</v>
@@ -4402,7 +4469,7 @@
         <v>6</v>
       </c>
       <c r="AJ22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK22" t="n">
         <v>4</v>
@@ -4411,10 +4478,10 @@
         <v>25</v>
       </c>
       <c r="AM22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN22" t="n">
         <v>24</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>25</v>
       </c>
       <c r="AO22" t="n">
         <v>2</v>
@@ -4438,13 +4505,13 @@
         <v>13</v>
       </c>
       <c r="AV22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-16-2013-14</t>
+          <t>2013-12-16</t>
         </is>
       </c>
     </row>
@@ -4488,43 +4555,43 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23" t="n">
         <v>17</v>
       </c>
       <c r="G23" t="n">
-        <v>0.32</v>
+        <v>0.292</v>
       </c>
       <c r="H23" t="n">
         <v>48.6</v>
       </c>
       <c r="I23" t="n">
-        <v>36.8</v>
+        <v>37</v>
       </c>
       <c r="J23" t="n">
         <v>82.2</v>
       </c>
       <c r="K23" t="n">
-        <v>0.448</v>
+        <v>0.45</v>
       </c>
       <c r="L23" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M23" t="n">
-        <v>21.3</v>
+        <v>21.7</v>
       </c>
       <c r="N23" t="n">
-        <v>0.355</v>
+        <v>0.354</v>
       </c>
       <c r="O23" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="P23" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="Q23" t="n">
         <v>0.759</v>
@@ -4533,19 +4600,19 @@
         <v>9.199999999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>33.2</v>
+        <v>32.7</v>
       </c>
       <c r="T23" t="n">
-        <v>42.3</v>
+        <v>41.8</v>
       </c>
       <c r="U23" t="n">
         <v>20.4</v>
       </c>
       <c r="V23" t="n">
-        <v>15.9</v>
+        <v>16.1</v>
       </c>
       <c r="W23" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="X23" t="n">
         <v>4.5</v>
@@ -4557,28 +4624,28 @@
         <v>20.6</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AB23" t="n">
-        <v>97</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-4.2</v>
+        <v>-4.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE23" t="n">
         <v>25</v>
       </c>
       <c r="AF23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG23" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AH23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>18</v>
@@ -4587,16 +4654,16 @@
         <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL23" t="n">
         <v>15</v>
       </c>
       <c r="AM23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO23" t="n">
         <v>24</v>
@@ -4605,7 +4672,7 @@
         <v>25</v>
       </c>
       <c r="AQ23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR23" t="n">
         <v>27</v>
@@ -4614,10 +4681,10 @@
         <v>9</v>
       </c>
       <c r="AT23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AU23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV23" t="n">
         <v>23</v>
@@ -4626,16 +4693,16 @@
         <v>16</v>
       </c>
       <c r="AX23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AZ23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA23" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BB23" t="n">
         <v>21</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-16-2013-14</t>
+          <t>2013-12-16</t>
         </is>
       </c>
     </row>
@@ -4670,88 +4737,88 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G24" t="n">
-        <v>0.269</v>
+        <v>0.28</v>
       </c>
       <c r="H24" t="n">
         <v>49.2</v>
       </c>
       <c r="I24" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="J24" t="n">
-        <v>88.2</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L24" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M24" t="n">
-        <v>22.4</v>
+        <v>22.1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.325</v>
+        <v>0.328</v>
       </c>
       <c r="O24" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="P24" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.703</v>
+        <v>0.707</v>
       </c>
       <c r="R24" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S24" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="T24" t="n">
-        <v>44.9</v>
+        <v>45.1</v>
       </c>
       <c r="U24" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="V24" t="n">
         <v>17.9</v>
       </c>
       <c r="W24" t="n">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X24" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA24" t="n">
         <v>19.9</v>
       </c>
       <c r="AB24" t="n">
-        <v>101.6</v>
+        <v>101.9</v>
       </c>
       <c r="AC24" t="n">
-        <v>-9.6</v>
+        <v>-8.6</v>
       </c>
       <c r="AD24" t="n">
         <v>2</v>
       </c>
       <c r="AE24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF24" t="n">
         <v>28</v>
@@ -4772,7 +4839,7 @@
         <v>18</v>
       </c>
       <c r="AL24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM24" t="n">
         <v>11</v>
@@ -4781,7 +4848,7 @@
         <v>27</v>
       </c>
       <c r="AO24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP24" t="n">
         <v>17</v>
@@ -4793,10 +4860,10 @@
         <v>10</v>
       </c>
       <c r="AS24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT24" t="n">
         <v>7</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>8</v>
       </c>
       <c r="AU24" t="n">
         <v>10</v>
@@ -4805,16 +4872,16 @@
         <v>30</v>
       </c>
       <c r="AW24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AX24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY24" t="n">
         <v>29</v>
       </c>
       <c r="AZ24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA24" t="n">
         <v>20</v>
@@ -4823,7 +4890,7 @@
         <v>13</v>
       </c>
       <c r="BC24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-16-2013-14</t>
+          <t>2013-12-16</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>2.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AE25" t="n">
         <v>8</v>
@@ -4948,10 +5015,10 @@
         <v>11</v>
       </c>
       <c r="AJ25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL25" t="n">
         <v>5</v>
@@ -4972,22 +5039,22 @@
         <v>21</v>
       </c>
       <c r="AR25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS25" t="n">
         <v>17</v>
       </c>
-      <c r="AS25" t="n">
-        <v>18</v>
-      </c>
       <c r="AT25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU25" t="n">
         <v>27</v>
       </c>
       <c r="AV25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX25" t="n">
         <v>12</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-16-2013-14</t>
+          <t>2013-12-16</t>
         </is>
       </c>
     </row>
@@ -5112,16 +5179,16 @@
         <v>7.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE26" t="n">
         <v>1</v>
       </c>
       <c r="AF26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH26" t="n">
         <v>15</v>
@@ -5136,10 +5203,10 @@
         <v>9</v>
       </c>
       <c r="AL26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN26" t="n">
         <v>2</v>
@@ -5157,16 +5224,16 @@
         <v>4</v>
       </c>
       <c r="AS26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT26" t="n">
         <v>5</v>
       </c>
       <c r="AU26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW26" t="n">
         <v>30</v>
@@ -5187,7 +5254,7 @@
         <v>1</v>
       </c>
       <c r="BC26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-16-2013-14</t>
+          <t>2013-12-16</t>
         </is>
       </c>
     </row>
@@ -5294,16 +5361,16 @@
         <v>-2.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF27" t="n">
         <v>24</v>
       </c>
       <c r="AG27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH27" t="n">
         <v>11</v>
@@ -5312,25 +5379,25 @@
         <v>19</v>
       </c>
       <c r="AJ27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK27" t="n">
         <v>22</v>
       </c>
       <c r="AL27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO27" t="n">
         <v>7</v>
       </c>
       <c r="AP27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ27" t="n">
         <v>5</v>
@@ -5339,19 +5406,19 @@
         <v>11</v>
       </c>
       <c r="AS27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT27" t="n">
         <v>18</v>
       </c>
       <c r="AU27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV27" t="n">
         <v>5</v>
       </c>
       <c r="AW27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-16-2013-14</t>
+          <t>2013-12-16</t>
         </is>
       </c>
     </row>
@@ -5398,94 +5465,94 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28" t="n">
         <v>19</v>
       </c>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G28" t="n">
-        <v>0.792</v>
+        <v>0.826</v>
       </c>
       <c r="H28" t="n">
         <v>48</v>
       </c>
       <c r="I28" t="n">
-        <v>41.2</v>
+        <v>41.4</v>
       </c>
       <c r="J28" t="n">
-        <v>83.40000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="K28" t="n">
         <v>0.494</v>
       </c>
       <c r="L28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M28" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.4</v>
+        <v>0.402</v>
       </c>
       <c r="O28" t="n">
         <v>12.2</v>
       </c>
       <c r="P28" t="n">
-        <v>16.3</v>
+        <v>16</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.749</v>
+        <v>0.759</v>
       </c>
       <c r="R28" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S28" t="n">
-        <v>33.9</v>
+        <v>34.2</v>
       </c>
       <c r="T28" t="n">
-        <v>42.7</v>
+        <v>43</v>
       </c>
       <c r="U28" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="V28" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="W28" t="n">
         <v>8</v>
       </c>
       <c r="X28" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y28" t="n">
         <v>4.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.7</v>
+        <v>17.3</v>
       </c>
       <c r="AA28" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>102.9</v>
+        <v>103.3</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.800000000000001</v>
+        <v>10.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
       </c>
       <c r="AF28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH28" t="n">
         <v>24</v>
@@ -5500,10 +5567,10 @@
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AM28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN28" t="n">
         <v>3</v>
@@ -5515,22 +5582,22 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS28" t="n">
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AW28" t="n">
         <v>15</v>
@@ -5539,7 +5606,7 @@
         <v>22</v>
       </c>
       <c r="AY28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ28" t="n">
         <v>2</v>
@@ -5548,7 +5615,7 @@
         <v>30</v>
       </c>
       <c r="BB28" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BC28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-16-2013-14</t>
+          <t>2013-12-16</t>
         </is>
       </c>
     </row>
@@ -5658,16 +5725,16 @@
         <v>0.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF29" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AG29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH29" t="n">
         <v>5</v>
@@ -5679,16 +5746,16 @@
         <v>15</v>
       </c>
       <c r="AK29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL29" t="n">
         <v>16</v>
       </c>
       <c r="AM29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO29" t="n">
         <v>6</v>
@@ -5697,7 +5764,7 @@
         <v>9</v>
       </c>
       <c r="AQ29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR29" t="n">
         <v>7</v>
@@ -5724,16 +5791,16 @@
         <v>20</v>
       </c>
       <c r="AZ29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB29" t="n">
         <v>18</v>
       </c>
       <c r="BC29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-16-2013-14</t>
+          <t>2013-12-16</t>
         </is>
       </c>
     </row>
@@ -5762,28 +5829,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E30" t="n">
         <v>6</v>
       </c>
       <c r="F30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G30" t="n">
-        <v>0.222</v>
+        <v>0.231</v>
       </c>
       <c r="H30" t="n">
         <v>48.4</v>
       </c>
       <c r="I30" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="J30" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K30" t="n">
-        <v>0.434</v>
+        <v>0.433</v>
       </c>
       <c r="L30" t="n">
         <v>6</v>
@@ -5792,28 +5859,28 @@
         <v>17.7</v>
       </c>
       <c r="N30" t="n">
-        <v>0.337</v>
+        <v>0.339</v>
       </c>
       <c r="O30" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="P30" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.746</v>
+        <v>0.749</v>
       </c>
       <c r="R30" t="n">
         <v>11.9</v>
       </c>
       <c r="S30" t="n">
-        <v>28.7</v>
+        <v>29</v>
       </c>
       <c r="T30" t="n">
-        <v>40.6</v>
+        <v>40.9</v>
       </c>
       <c r="U30" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="V30" t="n">
         <v>15.7</v>
@@ -5822,22 +5889,22 @@
         <v>7.2</v>
       </c>
       <c r="X30" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA30" t="n">
-        <v>21.1</v>
+        <v>21.4</v>
       </c>
       <c r="AB30" t="n">
-        <v>93.40000000000001</v>
+        <v>93.3</v>
       </c>
       <c r="AC30" t="n">
-        <v>-8.800000000000001</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -5858,10 +5925,10 @@
         <v>26</v>
       </c>
       <c r="AJ30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL30" t="n">
         <v>27</v>
@@ -5870,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO30" t="n">
         <v>19</v>
@@ -5879,7 +5946,7 @@
         <v>19</v>
       </c>
       <c r="AQ30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR30" t="n">
         <v>8</v>
@@ -5888,28 +5955,28 @@
         <v>29</v>
       </c>
       <c r="AT30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX30" t="n">
         <v>15</v>
       </c>
       <c r="AY30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ30" t="n">
         <v>23</v>
       </c>
       <c r="BA30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB30" t="n">
         <v>27</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-16-2013-14</t>
+          <t>2013-12-16</t>
         </is>
       </c>
     </row>
@@ -5944,148 +6011,148 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31" t="n">
         <v>13</v>
       </c>
       <c r="G31" t="n">
-        <v>0.435</v>
+        <v>0.409</v>
       </c>
       <c r="H31" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="I31" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J31" t="n">
-        <v>83.8</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.445</v>
+        <v>0.441</v>
       </c>
       <c r="L31" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M31" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="N31" t="n">
-        <v>0.384</v>
+        <v>0.376</v>
       </c>
       <c r="O31" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="P31" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.731</v>
+        <v>0.73</v>
       </c>
       <c r="R31" t="n">
-        <v>10.6</v>
+        <v>10.8</v>
       </c>
       <c r="S31" t="n">
-        <v>31.4</v>
+        <v>31.2</v>
       </c>
       <c r="T31" t="n">
         <v>42</v>
       </c>
       <c r="U31" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="V31" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="W31" t="n">
-        <v>8.699999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="X31" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y31" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z31" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="AA31" t="n">
         <v>19.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.3</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>-1.4</v>
+        <v>-1.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AE31" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF31" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AG31" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AH31" t="n">
         <v>1</v>
       </c>
       <c r="AI31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK31" t="n">
         <v>19</v>
       </c>
       <c r="AL31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM31" t="n">
         <v>12</v>
       </c>
       <c r="AN31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ31" t="n">
         <v>24</v>
       </c>
       <c r="AR31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>18</v>
+      </c>
+      <c r="AT31" t="n">
         <v>19</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>20</v>
       </c>
       <c r="AU31" t="n">
         <v>7</v>
       </c>
       <c r="AV31" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AW31" t="n">
         <v>6</v>
       </c>
       <c r="AX31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ31" t="n">
         <v>7</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-16-2013-14</t>
+          <t>2013-12-16</t>
         </is>
       </c>
     </row>
